--- a/Artefatos/Itens de trabalho.xlsx
+++ b/Artefatos/Itens de trabalho.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Gestão" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -119,13 +119,19 @@
   </si>
   <si>
     <t>Restam</t>
+  </si>
+  <si>
+    <t>Story Point/Hora</t>
+  </si>
+  <si>
+    <t>Story Point 1ª Sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +208,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,12 +272,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,7 +295,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,6 +316,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,6 +423,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -417,6 +458,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -592,14 +634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -611,15 +653,15 @@
     <col min="17" max="17" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,75 +675,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="25">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="25">
         <v>250</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="25">
         <f t="shared" ref="D4:D11" si="0">C4/B4</f>
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="25">
         <v>300</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="25">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="25">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="25">
         <v>900</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="25">
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="25">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="25">
         <v>900</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="25">
         <f t="shared" si="0"/>
         <v>69.230769230769226</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -716,8 +758,8 @@
         <v>4.7619047619047619</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B9">
@@ -731,8 +773,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B10">
@@ -746,8 +788,8 @@
         <v>23.529411764705884</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B11">
@@ -761,16 +803,16 @@
         <v>61.53846153846154</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14">
@@ -784,23 +826,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="25">
         <v>21</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="27">
         <v>1000</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="25">
         <f>C15/B15</f>
         <v>47.61904761904762</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16">
@@ -814,7 +856,7 @@
         <v>42.857142857142854</v>
       </c>
     </row>
-    <row r="29" spans="17:17">
+    <row r="29" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q29" t="s">
         <v>8</v>
       </c>
@@ -832,14 +874,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I11:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -847,155 +889,200 @@
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="6"/>
+      <c r="D1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="20"/>
+      <c r="G1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75">
-      <c r="A2" s="8" t="s">
+      <c r="H1" s="19"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>9.6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>4.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4.8</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>4.8</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13">
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="12">
         <f>B2*B3*B4</f>
-        <v>96</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>4.8</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="15">
+      <c r="M5" s="22"/>
+      <c r="N5" s="14">
         <f>B5</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75">
-      <c r="D6" s="4"/>
-      <c r="E6" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="10">
         <f>E2+E3+E4+E5</f>
         <v>31.2</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="12">
+      <c r="G6" s="8"/>
+      <c r="H6" s="11">
         <f>H2+H3+H4+H5</f>
         <v>22.400000000000002</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="16">
+      <c r="M6" s="20"/>
+      <c r="N6" s="15">
         <f>E6</f>
         <v>31.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
-      <c r="L7" s="21" t="s">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="16">
+      <c r="M7" s="19"/>
+      <c r="N7" s="15">
         <f>H6</f>
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75">
-      <c r="L9" s="20" t="s">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="15">
+      <c r="M9" s="19"/>
+      <c r="N9" s="14">
         <f>N5-N6-N7</f>
-        <v>42.399999999999991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="C13" s="14"/>
-    </row>
-    <row r="23" spans="7:7">
-      <c r="G23" s="14"/>
+        <v>46.399999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="28">
+        <f>(B14/B2)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25">
+        <f>SUM(B9:B13)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -1005,16 +1092,17 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
